--- a/datas/api.xlsx
+++ b/datas/api.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+          <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+          <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -1144,23 +1144,53 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+          <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId36"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1341,12 +1371,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId36"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
